--- a/SeleniumFramework9/Excels/DataSheet2.xlsx
+++ b/SeleniumFramework9/Excels/DataSheet2.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\eclipse-workspace\SeleniumFramework8\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\git\DemoWebShop1\SeleniumFramework9\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5607AF73-7267-43D0-B63B-117DC58CD06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F8871A-8C34-419B-BF14-348932D06FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -42,30 +37,42 @@
     <t>ConfirmPassword</t>
   </si>
   <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Registartion Status</t>
+  </si>
+  <si>
+    <t>Login Status</t>
+  </si>
+  <si>
+    <t>acg854</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>acg854@gmail.com</t>
+  </si>
+  <si>
+    <t>Password123</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
+    <t>ghi135</t>
+  </si>
+  <si>
+    <t>jkl</t>
+  </si>
+  <si>
+    <t>ghi135135@gmail.com</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>Password123</t>
-  </si>
-  <si>
-    <t>jkl</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>ghi135</t>
-  </si>
-  <si>
-    <t>ghi135135@gmail.com</t>
-  </si>
-  <si>
     <t>mno135</t>
   </si>
   <si>
@@ -82,18 +89,6 @@
   </si>
   <si>
     <t>stu135135@gmail.com</t>
-  </si>
-  <si>
-    <t>Registartion Status</t>
-  </si>
-  <si>
-    <t>Login Status</t>
-  </si>
-  <si>
-    <t>acg854</t>
-  </si>
-  <si>
-    <t>acg854@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -103,7 +98,7 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,7 +171,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -188,7 +183,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -235,6 +230,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -270,6 +282,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,19 +453,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -455,101 +476,101 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D9CF91EE-1697-47F3-A1AA-3FCE161235C5}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{8605783D-655A-49EA-89C7-164604E216CB}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{2E9485D9-FCA1-4FF2-8547-2B6E67FC5692}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{1B54771B-1167-4CD8-8156-24D5312C272C}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{634668E1-17BC-468C-BAA3-44FEDDF18BE6}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{92F568B4-2959-4125-9030-70B451A52CCB}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{84C841B0-8B71-460D-AFC0-6262DB07F5B9}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{AC779810-A7B1-40AC-AF47-EC3334C6C12B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
